--- a/tools/feilong-office-excel/src/test/resources/loxia/excel/Agenda.xlsx
+++ b/tools/feilong-office-excel/src/test/resources/loxia/excel/Agenda.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Agenda for 集合框架" sheetId="2" r:id="rId1"/>
     <sheet name="异常" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>16:15-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂纪律/课程范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts、springMVC
+异常效率问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -274,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1425,18 +1437,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
     <col min="5" max="239" width="9" style="1"/>
     <col min="240" max="240" width="3.625" style="1" customWidth="1"/>
     <col min="241" max="241" width="23.625" style="1" customWidth="1"/>
@@ -2133,7 +2145,7 @@
     <col min="16123" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>41887</v>
       </c>
@@ -2155,7 +2167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>41887</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>41887</v>
       </c>
@@ -2174,10 +2186,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>41887</v>
       </c>
@@ -2188,7 +2203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>41887</v>
       </c>
@@ -2199,7 +2214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>41887</v>
       </c>
